--- a/posterFlaskApp/main_scores.xlsx
+++ b/posterFlaskApp/main_scores.xlsx
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI7">
         <v>0</v>

--- a/posterFlaskApp/main_scores.xlsx
+++ b/posterFlaskApp/main_scores.xlsx
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>

--- a/posterFlaskApp/main_scores.xlsx
+++ b/posterFlaskApp/main_scores.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:CC17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,6 +526,126 @@
       <c r="AO1" t="str">
         <v>Yi Zheng</v>
       </c>
+      <c r="AP1" t="str">
+        <v>Jeongmin Ahn</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Ben Akih-Kumgeh</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Jesse Q. Bond</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Elizabeth Carter</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>C.Y. Roger Chen</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Ruth Chen</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>John F. Dannenhoffer</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Gabriel Silva De Oliveira</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Bing Dong</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>Zhenyu Gan</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>Nadeem Ghani</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>M. Cenk Gursoy</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>Jay Henderson</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>Endadul Hoque</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>Ian Hosein</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>Era Jain</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>Pankaj Jha</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>Min Liu</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>Zhen Ma</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>Shalabh Maroo</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>Joao Paulo Marum</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>Chikukuri Monhan</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>Mary Beth Monroe</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>Shikha Nangia</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>Anupam Pandey</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>Jason Pollack</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>Qinru Qiu</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>Farzana Rahman</v>
+      </c>
+      <c r="BR1" t="str">
+        <v>Younes Radi</v>
+      </c>
+      <c r="BS1" t="str">
+        <v>Baris Salman</v>
+      </c>
+      <c r="BT1" t="str">
+        <v>Ashok Sangani</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>Amit Sanyal</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>Wanliang Shan</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>Sucheta Soundarajan</v>
+      </c>
+      <c r="BX1" t="str">
+        <v>Yiyang Sun</v>
+      </c>
+      <c r="BY1" t="str">
+        <v>Yuzhe Tang</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>Svetoslava Todorova</v>
+      </c>
+      <c r="CA1" t="str">
+        <v>Senem Velipasalar</v>
+      </c>
+      <c r="CB1" t="str">
+        <v>Yaoying Wu</v>
+      </c>
+      <c r="CC1" t="str">
+        <v>Yi Zheng</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -595,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -649,6 +769,126 @@
         <v>0</v>
       </c>
       <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
         <v>0</v>
       </c>
     </row>
@@ -768,12 +1008,132 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
         <v>0</v>
       </c>
     </row>
@@ -890,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -899,6 +1259,126 @@
         <v>0</v>
       </c>
       <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
         <v>0</v>
       </c>
     </row>
@@ -991,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1024,6 +1504,126 @@
         <v>0</v>
       </c>
       <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
         <v>0</v>
       </c>
     </row>
@@ -1151,6 +1751,126 @@
       <c r="AO6">
         <v>0</v>
       </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1229,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1274,6 +1994,126 @@
         <v>0</v>
       </c>
       <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
         <v>0</v>
       </c>
     </row>
@@ -1390,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1399,6 +2239,126 @@
         <v>0</v>
       </c>
       <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
         <v>0</v>
       </c>
     </row>
@@ -1497,39 +2457,2119 @@
         <v>0</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>8</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AO9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CC17"/>
   </ignoredErrors>
 </worksheet>
 </file>